--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Nom</t>
   </si>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t>mohmed@gmail.com</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>dari</t>
+  </si>
+  <si>
+    <t>hala</t>
+  </si>
+  <si>
+    <t>haja@gmail.com</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>dfd</t>
+  </si>
+  <si>
+    <t>gg@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -400,20 +421,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +452,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123</v>
+      </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -441,7 +469,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>456</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -455,7 +486,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>789</v>
+      </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -469,7 +503,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -481,6 +518,40 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>123456789</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1233</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -489,6 +560,8 @@
     <hyperlink ref="E5" r:id="rId2"/>
     <hyperlink ref="E2" r:id="rId3"/>
     <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Nom</t>
   </si>
@@ -93,6 +93,36 @@
   </si>
   <si>
     <t>gg@gmail.com</t>
+  </si>
+  <si>
+    <t>DateNaissance</t>
+  </si>
+  <si>
+    <t>244/12/2003</t>
+  </si>
+  <si>
+    <t>12/38-2004</t>
+  </si>
+  <si>
+    <t>51/13/2001</t>
+  </si>
+  <si>
+    <t>hfg</t>
+  </si>
+  <si>
+    <t>dfdd</t>
+  </si>
+  <si>
+    <t>dfdd@gmail.com</t>
+  </si>
+  <si>
+    <t>Fahim</t>
+  </si>
+  <si>
+    <t>Malika</t>
+  </si>
+  <si>
+    <t>Malika@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -137,9 +167,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -421,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,9 +464,10 @@
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -451,8 +483,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>123</v>
       </c>
@@ -468,8 +503,11 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>37588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>456</v>
       </c>
@@ -485,8 +523,11 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>789</v>
       </c>
@@ -502,8 +543,11 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
@@ -519,8 +563,11 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>37303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21</v>
       </c>
@@ -536,8 +583,11 @@
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>123</v>
       </c>
@@ -552,6 +602,49 @@
       </c>
       <c r="E7" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="F7" s="2">
+        <v>40129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>456</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>12333222</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2">
+        <v>37603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>1234567</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>36639</v>
       </c>
     </row>
   </sheetData>
@@ -562,6 +655,8 @@
     <hyperlink ref="E4" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
     <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Nom</t>
   </si>
@@ -123,6 +123,66 @@
   </si>
   <si>
     <t>Malika@gmail.com</t>
+  </si>
+  <si>
+    <t>FFF</t>
+  </si>
+  <si>
+    <t>dFD</t>
+  </si>
+  <si>
+    <t>F@gmail.com</t>
+  </si>
+  <si>
+    <t>RFF</t>
+  </si>
+  <si>
+    <t>fgf</t>
+  </si>
+  <si>
+    <t>gt@gmail.com</t>
+  </si>
+  <si>
+    <t>32/12/2002</t>
+  </si>
+  <si>
+    <t>fghh</t>
+  </si>
+  <si>
+    <t>erere</t>
+  </si>
+  <si>
+    <t>gtt@gmail.com</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>ffe</t>
+  </si>
+  <si>
+    <t>gh@gmail.com</t>
+  </si>
+  <si>
+    <t>45/45-2002</t>
+  </si>
+  <si>
+    <t>ffgf</t>
+  </si>
+  <si>
+    <t>ZEE</t>
+  </si>
+  <si>
+    <t>ghr@gmail.com</t>
+  </si>
+  <si>
+    <t>jaha</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>jaha@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -452,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,6 +707,120 @@
         <v>36639</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>12123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>3222323</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2">
+        <v>37572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>545</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2">
+        <v>37541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>3333333</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2">
+        <v>37588</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
@@ -657,6 +831,12 @@
     <hyperlink ref="E7" r:id="rId6"/>
     <hyperlink ref="E8" r:id="rId7"/>
     <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP PRO\OneDrive\Bureau\excelToDataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\python\excel\ExcelToDataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E580AB7B-039B-4C86-9F89-DA4893AE011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Nom</t>
   </si>
@@ -38,9 +39,6 @@
     <t>Hajar</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>El Alami</t>
   </si>
   <si>
@@ -83,9 +81,6 @@
     <t>hala</t>
   </si>
   <si>
-    <t>haja@gmail.com</t>
-  </si>
-  <si>
     <t>gg</t>
   </si>
   <si>
@@ -119,16 +114,25 @@
     <t>Fahim</t>
   </si>
   <si>
-    <t>Malika</t>
-  </si>
-  <si>
-    <t>Malika@gmail.com</t>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Malika#gmail.com</t>
+  </si>
+  <si>
+    <t>Malikakkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>hhhhhh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +177,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,25 +455,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -481,18 +485,18 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -501,162 +505,180 @@
         <v>12345537</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2">
         <v>37588</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>456</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3">
         <v>61234567</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>789</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>123456789</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
       <c r="D5">
         <v>65434656</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2">
         <v>37303</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
       <c r="D6">
         <v>123456789</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>1233</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>40129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>456</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>12333222</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2">
         <v>37603</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>1234567</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
         <v>36639</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>645969744</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>37582</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId7" display="Malika@gmail.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{B6F28A34-0DCB-4F7E-B3F6-DB7DBBB175C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
